--- a/Pruebas Experimentales/Prueba Temperatura/Prueba 24C/PRUEBA_TEMPERATURA_6_24C.xlsx
+++ b/Pruebas Experimentales/Prueba Temperatura/Prueba 24C/PRUEBA_TEMPERATURA_6_24C.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Timestamp</t>
   </si>
@@ -73,106 +73,112 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>2023-12-08 23:17:42</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:18:42</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:19:43</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:20:44</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:21:45</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:22:46</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:23:47</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:24:47</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:25:48</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:26:49</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:27:50</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:28:51</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:29:52</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:30:53</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:31:53</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:32:54</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:33:55</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:34:56</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:35:57</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:36:58</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:37:58</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:38:59</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:40:00</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:41:01</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:42:02</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:43:03</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:44:04</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:45:04</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:46:05</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:47:06</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:48:07</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:49:08</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:50:09</t>
-  </si>
-  <si>
-    <t>2023-12-08 23:51:10</t>
+    <t>2023-12-12 04:04:36</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:05:35</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:06:35</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:07:35</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:08:35</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:09:35</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:10:34</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:11:34</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:12:34</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:13:34</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:14:34</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:15:34</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:16:33</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:17:33</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:18:33</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:19:33</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:20:33</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:21:33</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:22:32</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:23:32</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:24:32</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:25:32</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:26:32</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:27:32</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:28:31</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:29:31</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:30:31</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:31:31</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:32:31</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:33:31</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:34:30</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:35:30</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:36:30</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:37:30</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:38:30</t>
+  </si>
+  <si>
+    <t>2023-12-12 04:39:29</t>
   </si>
 </sst>
 </file>
@@ -839,111 +845,117 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos crudos'!$E$2:$E$35</c:f>
+              <c:f>'Datos crudos'!$E$2:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>25.541958041958001</c:v>
+                  <c:v>26.722027972027899</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>26.328671328671302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.935314685314601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.673076923076898</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>25.279720279720198</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>25.148601398601301</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>25.017482517482499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.017482517482499</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>24.886363636363601</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
+                  <c:v>25.017482517482499</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>24.624125874125799</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.624125874125799</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.361888111888099</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.361888111888099</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
+                  <c:v>24.886363636363601</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>24.493006993006901</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>24.230769230769202</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24.361888111888099</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24.361888111888099</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24.0996503496503</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>24.361888111888099</c:v>
+                  <c:v>24.7552447552447</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>24.493006993006901</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>24.624125874125799</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>24.493006993006901</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>24.0996503496503</c:v>
-                </c:pt>
                 <c:pt idx="17">
+                  <c:v>24.493006993006901</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.361888111888099</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.493006993006901</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.493006993006901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24.361888111888099</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24.361888111888099</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.361888111888099</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.493006993006901</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>24.230769230769202</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>24.230769230769202</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24.0996503496503</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>24.230769230769202</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23.968531468531399</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24.0996503496503</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24.230769230769202</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24.0996503496503</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
+                  <c:v>24.493006993006901</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>24.361888111888099</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>24.230769230769202</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>24.0996503496503</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>23.968531468531399</c:v>
+                  <c:v>24.361888111888099</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>24.230769230769202</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>23.968531468531399</c:v>
+                  <c:v>24.361888111888099</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>24.0996503496503</c:v>
+                  <c:v>24.230769230769202</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>24.493006993006901</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>24.0996503496503</c:v>
+                  <c:v>24.624125874125799</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24.230769230769202</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24.361888111888099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1202,34 +1214,34 @@
                   <c:v>24.230769230769202</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.0996503496503</c:v>
+                  <c:v>24.493006993006901</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>24.361888111888099</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>24.361888111888099</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>24.230769230769202</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.0996503496503</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.968531468531399</c:v>
+                  <c:v>24.361888111888099</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>24.230769230769202</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.968531468531399</c:v>
+                  <c:v>24.493006993006901</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.0996503496503</c:v>
+                  <c:v>24.624125874125799</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.493006993006901</c:v>
+                  <c:v>24.230769230769202</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.0996503496503</c:v>
+                  <c:v>24.361888111888099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1326,10 +1338,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>24.171169739351509</c:v>
+                  <c:v>24.361888111888074</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.171169739351509</c:v>
+                  <c:v>24.361888111888074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3051,10 +3063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3100,17 +3112,17 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>25.541958041958001</v>
+        <v>26.722027972027899</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I2" s="4">
         <f>INDEX(C:C,H2)-C2</f>
-        <v>6.3310185141745023E-3</v>
+        <v>1.2453703704522923E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3127,14 +3139,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>25.279720279720198</v>
+        <v>26.328671328671302</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3">
         <f>COUNT(E:E)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3151,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25.148601398601301</v>
+        <v>25.935314685314601</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3168,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24.886363636363601</v>
+        <v>25.673076923076898</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3185,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24.624125874125799</v>
+        <v>25.279720279720198</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3202,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24.624125874125799</v>
+        <v>25.148601398601301</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3219,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>24.361888111888099</v>
+        <v>25.017482517482499</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3236,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>24.361888111888099</v>
+        <v>25.017482517482499</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3253,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>24.493006993006901</v>
+        <v>24.886363636363601</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3270,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>24.230769230769202</v>
+        <v>25.017482517482499</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3287,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>24.361888111888099</v>
+        <v>24.624125874125799</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3304,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>24.361888111888099</v>
+        <v>24.886363636363601</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3321,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>24.0996503496503</v>
+        <v>24.493006993006901</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3338,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>24.361888111888099</v>
+        <v>24.7552447552447</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3372,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>24.493006993006901</v>
+        <v>24.624125874125799</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3385,11 +3397,11 @@
       <c r="C18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>24.0996503496503</v>
+        <v>24.493006993006901</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3406,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>24.230769230769202</v>
+        <v>24.493006993006901</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3423,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>24.230769230769202</v>
+        <v>24.361888111888099</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3440,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>24.0996503496503</v>
+        <v>24.493006993006901</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3457,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>24.230769230769202</v>
+        <v>24.493006993006901</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3474,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>23.968531468531399</v>
+        <v>24.361888111888099</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3491,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>24.0996503496503</v>
+        <v>24.361888111888099</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3508,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>24.230769230769202</v>
+        <v>24.361888111888099</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3525,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>24.0996503496503</v>
+        <v>24.493006993006901</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3542,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>24.361888111888099</v>
+        <v>24.230769230769202</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3559,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>24.230769230769202</v>
+        <v>24.493006993006901</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3576,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>24.0996503496503</v>
+        <v>24.361888111888099</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3593,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>23.968531468531399</v>
+        <v>24.361888111888099</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3627,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>23.968531468531399</v>
+        <v>24.361888111888099</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3644,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>24.0996503496503</v>
+        <v>24.230769230769202</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3678,7 +3690,41 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>24.0996503496503</v>
+        <v>24.624125874125799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>24</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>24.230769230769202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>24</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>24.361888111888099</v>
       </c>
     </row>
   </sheetData>
@@ -3692,7 +3738,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3717,7 +3763,7 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>2023-12-08 23:41:01</v>
+        <v>2023-12-12 04:29:31</v>
       </c>
       <c r="B2">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
@@ -3728,30 +3774,30 @@
       </c>
       <c r="E2">
         <f>AVERAGE(B:B)</f>
-        <v>24.171169739351509</v>
+        <v>24.361888111888074</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>2023-12-08 23:42:02</v>
+        <v>2023-12-12 04:30:31</v>
       </c>
       <c r="B3">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>24.0996503496503</v>
+        <v>24.493006993006901</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
         <f>AVERAGE(B:B)</f>
-        <v>24.171169739351509</v>
+        <v>24.361888111888074</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>2023-12-08 23:43:03</v>
+        <v>2023-12-12 04:31:31</v>
       </c>
       <c r="B4">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
@@ -3764,35 +3810,35 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>2023-12-08 23:44:04</v>
+        <v>2023-12-12 04:32:31</v>
       </c>
       <c r="B5">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>24.230769230769202</v>
+        <v>24.361888111888099</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S(B:B)</f>
-        <v>0.15912059691003405</v>
+        <v>0.13111888111885933</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>2023-12-08 23:45:04</v>
+        <v>2023-12-12 04:33:31</v>
       </c>
       <c r="B6">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>24.0996503496503</v>
+        <v>24.230769230769202</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>2023-12-08 23:46:05</v>
+        <v>2023-12-12 04:34:30</v>
       </c>
       <c r="B7">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>23.968531468531399</v>
+        <v>24.361888111888099</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -3801,7 +3847,7 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>2023-12-08 23:47:06</v>
+        <v>2023-12-12 04:35:30</v>
       </c>
       <c r="B8">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
@@ -3809,28 +3855,28 @@
       </c>
       <c r="E8">
         <f>MAX(B:B)</f>
-        <v>24.493006993006901</v>
+        <v>24.624125874125799</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>2023-12-08 23:48:07</v>
+        <v>2023-12-12 04:36:30</v>
       </c>
       <c r="B9">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>23.968531468531399</v>
+        <v>24.493006993006901</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>2023-12-08 23:49:08</v>
+        <v>2023-12-12 04:37:30</v>
       </c>
       <c r="B10">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>24.0996503496503</v>
+        <v>24.624125874125799</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -3839,25 +3885,25 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>2023-12-08 23:50:09</v>
+        <v>2023-12-12 04:38:30</v>
       </c>
       <c r="B11">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>24.493006993006901</v>
+        <v>24.230769230769202</v>
       </c>
       <c r="E11">
         <f>MIN(B:B)</f>
-        <v>23.968531468531399</v>
+        <v>24.230769230769202</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>2023-12-08 23:51:10</v>
+        <v>2023-12-12 04:39:29</v>
       </c>
       <c r="B12">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>24.0996503496503</v>
+        <v>24.361888111888099</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
